--- a/API-Description.xlsx
+++ b/API-Description.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="47">
   <si>
     <t>HTTP Verb</t>
   </si>
@@ -127,12 +127,6 @@
     <t>#</t>
   </si>
   <si>
-    <t>Resources&lt;Resource&lt;Product&gt;&gt; getAll()</t>
-  </si>
-  <si>
-    <t>getById(Product newProduct)</t>
-  </si>
-  <si>
     <t>ResponseEntity&lt;?&gt; delete(Long id)</t>
   </si>
   <si>
@@ -283,26 +277,123 @@
     </r>
   </si>
   <si>
-    <t>Retrieves all product records that exist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Returns only one record </t>
-  </si>
-  <si>
-    <t>Returns one product record with defined id</t>
-  </si>
-  <si>
     <t xml:space="preserve">Finds product record via id and, if succeded, updates it. Otherwise, </t>
   </si>
   <si>
-    <t>Deletes product record from DB</t>
+    <t>Returns all product records that present in company's catalogue</t>
+  </si>
+  <si>
+    <t>Returns specific product record via it's idenifier</t>
+  </si>
+  <si>
+    <t>Saves new product record - add new position in company's catalogue</t>
+  </si>
+  <si>
+    <t>PATCH</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Resources&lt;Resource&lt;Product&gt;&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>getAll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Resource&lt;Product&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>getById</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Product newProduct)</t>
+    </r>
+  </si>
+  <si>
+    <t>Deletes product record</t>
+  </si>
+  <si>
+    <t>/shops/{shopId}/products/{productId}</t>
+  </si>
+  <si>
+    <t>Create new shop record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update </t>
+  </si>
+  <si>
+    <t>/employees</t>
+  </si>
+  <si>
+    <t>/employees/{id}</t>
+  </si>
+  <si>
+    <t>Returns employee record via employee id</t>
+  </si>
+  <si>
+    <t>Returns all employee records for entire company or specific shop</t>
+  </si>
+  <si>
+    <t>Updates existing employee record or creates new</t>
+  </si>
+  <si>
+    <t>Creates new employee record</t>
+  </si>
+  <si>
+    <t>/purchases</t>
+  </si>
+  <si>
+    <t>/purchases/{id}</t>
+  </si>
+  <si>
+    <t>Returns purchase records via some filter critiria</t>
+  </si>
+  <si>
+    <t>Returns purchase info record found by id</t>
+  </si>
+  <si>
+    <t>Register new purchase</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,8 +450,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -385,8 +484,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -395,6 +500,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -405,6 +525,346 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -413,56 +873,211 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -746,504 +1361,645 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.140625" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3" style="52" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="52" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" style="52" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" style="52" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.140625" style="52" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" style="25" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+    </row>
+    <row r="2" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="34">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="53"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+    </row>
+    <row r="3" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="36">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="53"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+    </row>
+    <row r="4" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="36">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="53"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+    </row>
+    <row r="5" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="36">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="53"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="36">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="53"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="37">
         <v>6</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="B7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="38"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+    </row>
+    <row r="9" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="39">
+        <v>8</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="17" t="s">
+      <c r="E9" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="53"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+    </row>
+    <row r="10" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="36">
         <v>9</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
-        <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="53"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="36">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+    </row>
+    <row r="12" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="36">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="36">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="34">
         <v>15</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="B14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E14" s="4"/>
+      <c r="F14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+    </row>
+    <row r="15" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="34">
+        <v>15</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+    </row>
+    <row r="16" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="34">
+        <v>15</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="22"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+    </row>
+    <row r="17" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+    </row>
+    <row r="18" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="34">
+        <v>15</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+    </row>
+    <row r="19" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="39">
+        <v>16</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="40"/>
+      <c r="F19" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+    </row>
+    <row r="20" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="39">
+        <v>17</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+    </row>
+    <row r="21" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="39">
+        <v>18</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="40"/>
+      <c r="F21" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+    </row>
+    <row r="22" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="43">
         <v>19</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
-        <v>9</v>
-      </c>
-      <c r="B11" s="10" t="s">
+      <c r="B22" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="44"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+    </row>
+    <row r="23" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+    </row>
+    <row r="24" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="43">
+        <v>20</v>
+      </c>
+      <c r="B24" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="C24" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="46"/>
+      <c r="F24" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+    </row>
+    <row r="25" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="33">
+        <v>21</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+      <c r="E25" s="68"/>
+      <c r="F25" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+    </row>
+    <row r="26" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="48">
+        <v>22</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="26"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
